--- a/biology/Zoologie/Empis_tessellata/Empis_tessellata.xlsx
+++ b/biology/Zoologie/Empis_tessellata/Empis_tessellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'empis marqueté (Empis tessellata) est une espèce d'insectes diptères (comme les mouches, moustiques, taons, syrphes), de la famille des Empididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une longueur d'environ 1 à 1,2 cm, cette mouche aux longues pattes a une tête presque sphérique munie d'une trompe effilée orientée vers le bas. L'abdomen est arqué.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce indigène d'Europe et d'Asie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce indigène d'Europe et d'Asie.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette mouche vit dans les prés et dans les haies. Les larves vivent dans la terre.
 L'imago vole d'avril à août, chasse d'autres mouches et des insectes mais se nourrit aussi de nectar notamment d'apiacées (ombellifères). 
